--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd28-Cd80.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd28-Cd80.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cd28</t>
+  </si>
+  <si>
+    <t>Cd80</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cd28</t>
-  </si>
-  <si>
-    <t>Cd80</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.218187</v>
+        <v>4.961972333333333</v>
       </c>
       <c r="H2">
-        <v>0.6545609999999999</v>
+        <v>14.885917</v>
       </c>
       <c r="I2">
-        <v>0.02811184232310935</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.02811184232310934</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.539733</v>
+        <v>0.7715313333333333</v>
       </c>
       <c r="N2">
-        <v>1.619199</v>
+        <v>2.314594</v>
       </c>
       <c r="O2">
-        <v>0.0338608224813917</v>
+        <v>0.05172308417778351</v>
       </c>
       <c r="P2">
-        <v>0.0338608224813917</v>
+        <v>0.05172308417778351</v>
       </c>
       <c r="Q2">
-        <v>0.117762724071</v>
+        <v>3.828317130299777</v>
       </c>
       <c r="R2">
-        <v>1.059864516639</v>
+        <v>34.454854172698</v>
       </c>
       <c r="S2">
-        <v>0.0009518901025276795</v>
+        <v>0.05172308417778351</v>
       </c>
       <c r="T2">
-        <v>0.0009518901025276794</v>
+        <v>0.05172308417778351</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.218187</v>
+        <v>4.961972333333333</v>
       </c>
       <c r="H3">
-        <v>0.6545609999999999</v>
+        <v>14.885917</v>
       </c>
       <c r="I3">
-        <v>0.02811184232310935</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.02811184232310934</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.713472666666667</v>
+        <v>3.713472666666666</v>
       </c>
       <c r="N3">
         <v>11.140418</v>
       </c>
       <c r="O3">
-        <v>0.2329693362375475</v>
+        <v>0.2489493958723191</v>
       </c>
       <c r="P3">
-        <v>0.2329693362375475</v>
+        <v>0.2489493958723191</v>
       </c>
       <c r="Q3">
-        <v>0.8102314607219999</v>
+        <v>18.42614863258955</v>
       </c>
       <c r="R3">
-        <v>7.292083146497999</v>
+        <v>165.835337693306</v>
       </c>
       <c r="S3">
-        <v>0.006549197246429381</v>
+        <v>0.2489493958723191</v>
       </c>
       <c r="T3">
-        <v>0.00654919724642938</v>
+        <v>0.2489493958723191</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.218187</v>
+        <v>4.961972333333333</v>
       </c>
       <c r="H4">
-        <v>0.6545609999999999</v>
+        <v>14.885917</v>
       </c>
       <c r="I4">
-        <v>0.02811184232310935</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.02811184232310934</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.049821333333333</v>
+        <v>1.701035666666667</v>
       </c>
       <c r="N4">
-        <v>3.149464</v>
+        <v>5.103107</v>
       </c>
       <c r="O4">
-        <v>0.06586184985016284</v>
+        <v>0.1140366012048922</v>
       </c>
       <c r="P4">
-        <v>0.06586184985016284</v>
+        <v>0.1140366012048922</v>
       </c>
       <c r="Q4">
-        <v>0.229057367256</v>
+        <v>8.440491916013221</v>
       </c>
       <c r="R4">
-        <v>2.061516305304</v>
+        <v>75.96442724411899</v>
       </c>
       <c r="S4">
-        <v>0.001851497938096081</v>
+        <v>0.1140366012048922</v>
       </c>
       <c r="T4">
-        <v>0.001851497938096081</v>
+        <v>0.1140366012048922</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.218187</v>
+        <v>4.961972333333333</v>
       </c>
       <c r="H5">
-        <v>0.6545609999999999</v>
+        <v>14.885917</v>
       </c>
       <c r="I5">
-        <v>0.02811184232310935</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.02811184232310934</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.63672166666667</v>
+        <v>8.730536666666668</v>
       </c>
       <c r="N5">
-        <v>31.910165</v>
+        <v>26.19161</v>
       </c>
       <c r="O5">
-        <v>0.6673079914308979</v>
+        <v>0.5852909187450052</v>
       </c>
       <c r="P5">
-        <v>0.6673079914308979</v>
+        <v>0.5852909187450052</v>
       </c>
       <c r="Q5">
-        <v>2.320794390285</v>
+        <v>43.32068139515222</v>
       </c>
       <c r="R5">
-        <v>20.887149512565</v>
+        <v>389.88613255637</v>
       </c>
       <c r="S5">
-        <v>0.0187592570360562</v>
+        <v>0.5852909187450052</v>
       </c>
       <c r="T5">
-        <v>0.0187592570360562</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>7.543204</v>
-      </c>
-      <c r="H6">
-        <v>22.629612</v>
-      </c>
-      <c r="I6">
-        <v>0.9718881576768906</v>
-      </c>
-      <c r="J6">
-        <v>0.9718881576768906</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.539733</v>
-      </c>
-      <c r="N6">
-        <v>1.619199</v>
-      </c>
-      <c r="O6">
-        <v>0.0338608224813917</v>
-      </c>
-      <c r="P6">
-        <v>0.0338608224813917</v>
-      </c>
-      <c r="Q6">
-        <v>4.071316124532</v>
-      </c>
-      <c r="R6">
-        <v>36.64184512078801</v>
-      </c>
-      <c r="S6">
-        <v>0.03290893237886402</v>
-      </c>
-      <c r="T6">
-        <v>0.03290893237886402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>7.543204</v>
-      </c>
-      <c r="H7">
-        <v>22.629612</v>
-      </c>
-      <c r="I7">
-        <v>0.9718881576768906</v>
-      </c>
-      <c r="J7">
-        <v>0.9718881576768906</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.713472666666667</v>
-      </c>
-      <c r="N7">
-        <v>11.140418</v>
-      </c>
-      <c r="O7">
-        <v>0.2329693362375475</v>
-      </c>
-      <c r="P7">
-        <v>0.2329693362375475</v>
-      </c>
-      <c r="Q7">
-        <v>28.01148187309067</v>
-      </c>
-      <c r="R7">
-        <v>252.103336857816</v>
-      </c>
-      <c r="S7">
-        <v>0.2264201389911182</v>
-      </c>
-      <c r="T7">
-        <v>0.2264201389911182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>7.543204</v>
-      </c>
-      <c r="H8">
-        <v>22.629612</v>
-      </c>
-      <c r="I8">
-        <v>0.9718881576768906</v>
-      </c>
-      <c r="J8">
-        <v>0.9718881576768906</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.049821333333333</v>
-      </c>
-      <c r="N8">
-        <v>3.149464</v>
-      </c>
-      <c r="O8">
-        <v>0.06586184985016284</v>
-      </c>
-      <c r="P8">
-        <v>0.06586184985016284</v>
-      </c>
-      <c r="Q8">
-        <v>7.919016480885333</v>
-      </c>
-      <c r="R8">
-        <v>71.27114832796801</v>
-      </c>
-      <c r="S8">
-        <v>0.06401035191206676</v>
-      </c>
-      <c r="T8">
-        <v>0.06401035191206676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>7.543204</v>
-      </c>
-      <c r="H9">
-        <v>22.629612</v>
-      </c>
-      <c r="I9">
-        <v>0.9718881576768906</v>
-      </c>
-      <c r="J9">
-        <v>0.9718881576768906</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>10.63672166666667</v>
-      </c>
-      <c r="N9">
-        <v>31.910165</v>
-      </c>
-      <c r="O9">
-        <v>0.6673079914308979</v>
-      </c>
-      <c r="P9">
-        <v>0.6673079914308979</v>
-      </c>
-      <c r="Q9">
-        <v>80.23496142288667</v>
-      </c>
-      <c r="R9">
-        <v>722.1146528059801</v>
-      </c>
-      <c r="S9">
-        <v>0.6485487343948417</v>
-      </c>
-      <c r="T9">
-        <v>0.6485487343948417</v>
+        <v>0.5852909187450052</v>
       </c>
     </row>
   </sheetData>
